--- a/data/trans_dic/P40_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P40_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7510237090722534</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7511632991064762</v>
+        <v>0.7511632991064763</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.792233122597101</v>
@@ -697,7 +697,7 @@
         <v>0.7062782445204082</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.7111522627009658</v>
+        <v>0.7111522627009657</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.783922264390279</v>
+        <v>0.7825183643103431</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.729855729420542</v>
+        <v>0.7242574701756821</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6987132921529697</v>
+        <v>0.6927835755958107</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7062107803142049</v>
+        <v>0.698428309707896</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7406845527524086</v>
+        <v>0.7273696683230428</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5427849520386538</v>
+        <v>0.5440891211405882</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6016997912159936</v>
+        <v>0.6086742963163775</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6237893224084559</v>
+        <v>0.6254466849602738</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7726311460324882</v>
+        <v>0.7805678865313352</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6548211272789786</v>
+        <v>0.6502404355631703</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6666063172858728</v>
+        <v>0.6641216617073233</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6785176715754015</v>
+        <v>0.6788091991011306</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8811875568980408</v>
+        <v>0.871727907658307</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.82577083361298</v>
+        <v>0.8263664425638513</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8021882211766508</v>
+        <v>0.8013224302955799</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7928949140363126</v>
+        <v>0.7937533784189396</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8410104341332844</v>
+        <v>0.8372277769354196</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6712199473640902</v>
+        <v>0.666749720670749</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7147991471263109</v>
+        <v>0.7157536430699166</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7079262922348312</v>
+        <v>0.708807938118226</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8456329841138123</v>
+        <v>0.8457031442363263</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7347370442432467</v>
+        <v>0.7305783211095789</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7452848656974164</v>
+        <v>0.7439183638984567</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7377657109198824</v>
+        <v>0.7405893431364395</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.8835336846763816</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8398432678306947</v>
+        <v>0.8398432678306946</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.7144892264754592</v>
@@ -821,7 +821,7 @@
         <v>0.7733022012274369</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.7791630153751209</v>
+        <v>0.7791630153751208</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.7809626707480558</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8152589081830862</v>
+        <v>0.8104514691326011</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8015599155615263</v>
+        <v>0.798728315108747</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8480625242378286</v>
+        <v>0.8519669903360997</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8019668271615631</v>
+        <v>0.7999826958482704</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6755196661484243</v>
+        <v>0.6747723302086559</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6556057468949666</v>
+        <v>0.6551025127153043</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7363653772722836</v>
+        <v>0.7341706473470164</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7493813909268927</v>
+        <v>0.7481761434808798</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7535735813348803</v>
+        <v>0.755877414168705</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7369246057285312</v>
+        <v>0.7382766268820855</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.801726300619499</v>
+        <v>0.8033850065511959</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7842932394274038</v>
+        <v>0.783563323911427</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8796327109712937</v>
+        <v>0.8808805354611327</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8732674572306357</v>
+        <v>0.8734937572445886</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9094272076867449</v>
+        <v>0.9099712968053317</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8769517342478053</v>
+        <v>0.8716444634827548</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7535146277769734</v>
+        <v>0.7531083858030067</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7372465667005478</v>
+        <v>0.7340407517776094</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8095255632346446</v>
+        <v>0.8102517221899369</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8050585515226324</v>
+        <v>0.8063445573114129</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.806452404162226</v>
+        <v>0.8089006415736788</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7923917093973617</v>
+        <v>0.7934098752143686</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8507471647874711</v>
+        <v>0.8544617429419192</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8309331573797126</v>
+        <v>0.8306915594292058</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.8130255982181243</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.7381976129700623</v>
+        <v>0.7381976129700621</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7928189386186544</v>
+        <v>0.7960325640269554</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7738213322359117</v>
+        <v>0.7743053133028427</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7912568594627929</v>
+        <v>0.791029672358016</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7196173757199603</v>
+        <v>0.7225518895423365</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6457473291688899</v>
+        <v>0.6499315469324359</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6923891028442948</v>
+        <v>0.6883855110911014</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.742345658934743</v>
+        <v>0.7421809054885318</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6748781047478125</v>
+        <v>0.6717552446254441</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7330952935519156</v>
+        <v>0.7369580402259167</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7449170081875445</v>
+        <v>0.7476875123807452</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7814607581450953</v>
+        <v>0.7796656357523214</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7117959639274388</v>
+        <v>0.7108292650946707</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8777240564799051</v>
+        <v>0.8758453961383</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8635551133551264</v>
+        <v>0.8641707091056372</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8717301009304406</v>
+        <v>0.8716779093837107</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8045228252408494</v>
+        <v>0.810618725166623</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7481986482542481</v>
+        <v>0.7459359166490598</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7903989517024901</v>
+        <v>0.7863710486669939</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8387780074589338</v>
+        <v>0.8363087574903829</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7511026074720696</v>
+        <v>0.7487813687107953</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8016561002013106</v>
+        <v>0.7977654996355904</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.81424660502671</v>
+        <v>0.8126014487710841</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8446789404554892</v>
+        <v>0.8435836708315179</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7672230762127008</v>
+        <v>0.7672237924470747</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.8185638579932295</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.801733550351628</v>
+        <v>0.8017335503516277</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7319440373395538</v>
@@ -1105,7 +1105,7 @@
         <v>0.7459467372096639</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.7537310863245591</v>
+        <v>0.753731086324559</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8317797223692671</v>
+        <v>0.8335902252242188</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7717801145036943</v>
+        <v>0.7688247184242195</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7770612676628926</v>
+        <v>0.7774628937426837</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7442105239639518</v>
+        <v>0.7503389689115875</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6868667979247409</v>
+        <v>0.6869455446814855</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6138068099297621</v>
+        <v>0.6122582709405711</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.621422221818653</v>
+        <v>0.6242270150493647</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6659987578810121</v>
+        <v>0.6669776937617001</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7717223037537928</v>
+        <v>0.7706998745088551</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7025957198480193</v>
+        <v>0.7056060668860036</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7104106230363317</v>
+        <v>0.7146091938321298</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7249594197059477</v>
+        <v>0.7207958791075064</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9035669773042878</v>
+        <v>0.904097599161705</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8576187679360769</v>
+        <v>0.8536648882252511</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8553275444767829</v>
+        <v>0.8545622643602121</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8433703197209398</v>
+        <v>0.8475291725527329</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7769728699570951</v>
+        <v>0.7730532390614693</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7102158413008768</v>
+        <v>0.7120318105437103</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7263131687106267</v>
+        <v>0.7242196025397973</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7464741097429938</v>
+        <v>0.7495899574058746</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8288481832170443</v>
+        <v>0.8299165727464144</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7690398237714169</v>
+        <v>0.7686053386962511</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7774318903351124</v>
+        <v>0.7809145303233638</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7845046401558419</v>
+        <v>0.7835593334625125</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.8422801633925958</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8711876693693912</v>
+        <v>0.8711876693693914</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.6124768208731771</v>
@@ -1229,7 +1229,7 @@
         <v>0.7272084000656768</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.783327370401475</v>
+        <v>0.7833273704014749</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.6813739203295232</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6897647729663943</v>
+        <v>0.6827432996142627</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7552454711872802</v>
+        <v>0.7560683355600781</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7903808133104683</v>
+        <v>0.7846769552728595</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8266942600281179</v>
+        <v>0.8273914607058289</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5357124107557557</v>
+        <v>0.5396827149164449</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6167701704115802</v>
+        <v>0.6250395973213592</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6660693909333174</v>
+        <v>0.6583296037598992</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7466202622818571</v>
+        <v>0.746131208526931</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6374559552306918</v>
+        <v>0.6344572511701687</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7042264888471342</v>
+        <v>0.7044211299530707</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7391302008258528</v>
+        <v>0.7415397654512451</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7978687999319743</v>
+        <v>0.7986261675736593</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8096033209285667</v>
+        <v>0.8065069022079361</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8658986284454693</v>
+        <v>0.8656053783217379</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.88622138476681</v>
+        <v>0.8846821226716429</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9023327302649901</v>
+        <v>0.9029465584064711</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6847490965342315</v>
+        <v>0.681717558703745</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7454054314621938</v>
+        <v>0.7470529807031505</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7850549730339721</v>
+        <v>0.7832535553560441</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8176077836419413</v>
+        <v>0.815266895335347</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7250962850671555</v>
+        <v>0.7241422479024466</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7876349060590145</v>
+        <v>0.794124855862592</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8215784066734818</v>
+        <v>0.8200221349303002</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.8501344511391105</v>
+        <v>0.850585997163858</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.8030113207313826</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.778413499141613</v>
+        <v>0.7784134991416128</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.6475917865143181</v>
@@ -1365,7 +1365,7 @@
         <v>0.7145113936603503</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.6657816811988553</v>
+        <v>0.6657816811988551</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.750377031561716</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8089447610993025</v>
+        <v>0.8049731030562388</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7622667982169595</v>
+        <v>0.7599050255196894</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7559281827607262</v>
+        <v>0.747036092589687</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7324376697697709</v>
+        <v>0.7322481009724198</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5908584179687959</v>
+        <v>0.5865822861104135</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6821297857944971</v>
+        <v>0.6733991696746549</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.65836194263268</v>
+        <v>0.6499837400409945</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.624273984187196</v>
+        <v>0.6214572136556827</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.7137234198923244</v>
+        <v>0.7177984890757449</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.7395453482800269</v>
+        <v>0.7359803036934203</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.7164279462380696</v>
+        <v>0.718265364418594</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.6934149429058545</v>
+        <v>0.6917494401110641</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.893748807810139</v>
+        <v>0.8936145578652711</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8622247665413253</v>
+        <v>0.8597291969134566</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8490262874518053</v>
+        <v>0.844643084130805</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8184271867963564</v>
+        <v>0.8177584303801267</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7025042581381756</v>
+        <v>0.7020706515972045</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7848900008165021</v>
+        <v>0.7802598210018792</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7694168612551906</v>
+        <v>0.7658593746118312</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.7068385795598927</v>
+        <v>0.7074565091387699</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7848431653352624</v>
+        <v>0.7872185171624375</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.8088102754008739</v>
+        <v>0.8059009893930769</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.7948899666727044</v>
+        <v>0.7976396130382618</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.7504846702993168</v>
+        <v>0.7513341247157782</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.7902776082480011</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.784568069099151</v>
+        <v>0.7845680690991512</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8300714820327513</v>
+        <v>0.825815858571358</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8101898085509466</v>
+        <v>0.8071427072697429</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8129722997188457</v>
+        <v>0.813459230301089</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8094205642569703</v>
+        <v>0.8096581128178661</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6791731753725018</v>
+        <v>0.680482183368783</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7152602603541083</v>
+        <v>0.7162408474814396</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7028291995126262</v>
+        <v>0.7018372528065155</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7035280359098526</v>
+        <v>0.7019769554970309</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7626082078632384</v>
+        <v>0.7596334746387194</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.7733825472075377</v>
+        <v>0.7728598925523282</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.7680537497435176</v>
+        <v>0.7691060765544526</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.764765388033925</v>
+        <v>0.7650771599338623</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8857038887301346</v>
+        <v>0.8852452784529392</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8723306156100851</v>
+        <v>0.8708419747895338</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.871077430349021</v>
+        <v>0.8701017902689691</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8660273493564725</v>
+        <v>0.8662655791864555</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7513079054792881</v>
+        <v>0.7528119165355289</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7846936109321317</v>
+        <v>0.7861081002688138</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7714287057734296</v>
+        <v>0.7718208682427784</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7611155240693428</v>
+        <v>0.7612891435127224</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8095816907575129</v>
+        <v>0.8076706474975257</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.8187972164711238</v>
+        <v>0.8201305826297911</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.8133125085567513</v>
+        <v>0.8128840902990907</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.8045967376370889</v>
+        <v>0.8054211535857446</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.8356488739401193</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.7661161111235375</v>
+        <v>0.7661161111235374</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7957345955841532</v>
+        <v>0.7959623665636543</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8260942576992059</v>
+        <v>0.8262476843515287</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.839810090365846</v>
+        <v>0.8404775628202914</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.7879912060479133</v>
+        <v>0.789904547319521</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.7020008277280887</v>
+        <v>0.703691004035824</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.7808678361611967</v>
+        <v>0.7841424611840695</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.7750603471031775</v>
+        <v>0.7764126372570341</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.6897581361587271</v>
+        <v>0.6878707986577469</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.7581964087354666</v>
+        <v>0.7582788666404623</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.8103968242939632</v>
+        <v>0.8112730884378269</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.8162815699525043</v>
+        <v>0.8152502315670206</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.7456448245501017</v>
+        <v>0.7461817059479292</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8507029750362878</v>
+        <v>0.8491879283666153</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8802367350494189</v>
+        <v>0.8800528187227227</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8910166922585666</v>
+        <v>0.8909291465089589</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8423283897616359</v>
+        <v>0.8403597574979825</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7676202580578186</v>
+        <v>0.7683318909271105</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.8397988550766401</v>
+        <v>0.8410690456979643</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.8337279211808883</v>
+        <v>0.8369900710052981</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.7428167647961615</v>
+        <v>0.7427761482897565</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.8002173102578338</v>
+        <v>0.7989290340210135</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.8499619204244262</v>
+        <v>0.8507621357449595</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.855921491299297</v>
+        <v>0.8542866686977888</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.7836340449077777</v>
+        <v>0.7849587127518589</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.7486477457633723</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.7245920264690666</v>
+        <v>0.7245920264690668</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.7766200149556407</v>
@@ -1785,7 +1785,7 @@
         <v>0.7935580375637131</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.7678555966844084</v>
+        <v>0.7678555966844085</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8270560069266663</v>
+        <v>0.8268632092739383</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8175967122012225</v>
+        <v>0.816489304594389</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8289392943667365</v>
+        <v>0.8281580914550353</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.7989397497869494</v>
+        <v>0.8000557284757057</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.6988692319201895</v>
+        <v>0.7001548348716669</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.714854076230575</v>
+        <v>0.714155050566625</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.7345672856744333</v>
+        <v>0.7328845429672535</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.7121131892733056</v>
+        <v>0.7125947703636984</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.7658304141338215</v>
+        <v>0.7663484795343316</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.7701002813123101</v>
+        <v>0.7679220652449829</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.7833676038147005</v>
+        <v>0.7840844914466177</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.7598140738137475</v>
+        <v>0.7583420554147771</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8530764651913789</v>
+        <v>0.8523683195355858</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8452096663572957</v>
+        <v>0.843138349045967</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8525843278857751</v>
+        <v>0.8531600939909899</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.8252376879860372</v>
+        <v>0.8273050645479573</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7309283245570711</v>
+        <v>0.7301357637525615</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.7454579188279417</v>
+        <v>0.7453587071804041</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.7644589988507918</v>
+        <v>0.7633474641773632</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.7365466000263108</v>
+        <v>0.736538158637827</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.7870204204303629</v>
+        <v>0.786570472685741</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.7900951318382322</v>
+        <v>0.7890874197700382</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.8035835657278116</v>
+        <v>0.8036791583170164</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.7774249908741581</v>
+        <v>0.77655269530547</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>214019</v>
+        <v>213635</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>212196</v>
+        <v>210568</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>202847</v>
+        <v>201125</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>225172</v>
+        <v>222690</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>193199</v>
+        <v>189726</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>154254</v>
+        <v>154625</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>173713</v>
+        <v>175726</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>197155</v>
+        <v>197679</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>412468</v>
+        <v>416705</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>376474</v>
+        <v>373840</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>385977</v>
+        <v>384538</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>430795</v>
+        <v>430980</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>240573</v>
+        <v>237990</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>240082</v>
+        <v>240255</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>232887</v>
+        <v>232636</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>252811</v>
+        <v>253084</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>219367</v>
+        <v>218381</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>190754</v>
+        <v>189484</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>206365</v>
+        <v>206640</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>223748</v>
+        <v>224027</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>451439</v>
+        <v>451477</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>422419</v>
+        <v>420028</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>431533</v>
+        <v>430742</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>468412</v>
+        <v>470205</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>401984</v>
+        <v>399613</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>402115</v>
+        <v>400694</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>425255</v>
+        <v>427213</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>425561</v>
+        <v>424508</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>340427</v>
+        <v>340051</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>342721</v>
+        <v>342457</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>383654</v>
+        <v>382510</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>409532</v>
+        <v>408874</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>751331</v>
+        <v>753628</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>754920</v>
+        <v>756305</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>819728</v>
+        <v>821424</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>844794</v>
+        <v>844008</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>433725</v>
+        <v>434340</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>438088</v>
+        <v>438201</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>456026</v>
+        <v>456299</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>465352</v>
+        <v>462536</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>379733</v>
+        <v>379528</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>385399</v>
+        <v>383723</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>421771</v>
+        <v>422149</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>439960</v>
+        <v>440662</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>804052</v>
+        <v>806493</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>811741</v>
+        <v>812784</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>869850</v>
+        <v>873648</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>895032</v>
+        <v>894772</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>252787</v>
+        <v>253812</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>249312</v>
+        <v>249468</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>249158</v>
+        <v>249087</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>227394</v>
+        <v>228321</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>216591</v>
+        <v>217995</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>236119</v>
+        <v>234753</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>246271</v>
+        <v>246216</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>240514</v>
+        <v>239401</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>479633</v>
+        <v>482161</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>494031</v>
+        <v>495869</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>505321</v>
+        <v>504160</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>478594</v>
+        <v>477944</v>
       </c>
     </row>
     <row r="15">
@@ -2552,37 +2552,37 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>279859</v>
+        <v>279260</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>278223</v>
+        <v>278421</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>274498</v>
+        <v>274482</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>254224</v>
+        <v>256150</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>250955</v>
+        <v>250196</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>269542</v>
+        <v>268168</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>278262</v>
+        <v>277443</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>267679</v>
+        <v>266851</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>524490</v>
+        <v>521944</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>540011</v>
+        <v>538920</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>546200</v>
+        <v>545492</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>515862</v>
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>297504</v>
+        <v>298152</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>284069</v>
+        <v>282981</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>286060</v>
+        <v>286208</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>277698</v>
+        <v>279985</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>255141</v>
+        <v>255170</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>238196</v>
+        <v>237595</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>239481</v>
+        <v>240562</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>281026</v>
+        <v>281439</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>562684</v>
+        <v>561939</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>531257</v>
+        <v>533533</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>535299</v>
+        <v>538463</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>576420</v>
+        <v>573110</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>323181</v>
+        <v>323370</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>315664</v>
+        <v>314208</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>314873</v>
+        <v>314591</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>314699</v>
+        <v>316251</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>288611</v>
+        <v>287155</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>275608</v>
+        <v>276313</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>279904</v>
+        <v>279097</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>314983</v>
+        <v>316298</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>604336</v>
+        <v>605115</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>581497</v>
+        <v>581169</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>585800</v>
+        <v>588425</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>623765</v>
+        <v>623014</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>139627</v>
+        <v>138206</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>159799</v>
+        <v>159973</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>163198</v>
+        <v>162020</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>170022</v>
+        <v>170165</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>111250</v>
+        <v>112075</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>134886</v>
+        <v>136695</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>143875</v>
+        <v>142203</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>169351</v>
+        <v>169240</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>261417</v>
+        <v>260188</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>303018</v>
+        <v>303102</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>312272</v>
+        <v>313290</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>345069</v>
+        <v>345396</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>163886</v>
+        <v>163259</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>183212</v>
+        <v>183150</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>182987</v>
+        <v>182669</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>185578</v>
+        <v>185705</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>142200</v>
+        <v>141571</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>163019</v>
+        <v>163379</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>169577</v>
+        <v>169187</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>185452</v>
+        <v>184921</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>297358</v>
+        <v>296967</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>338907</v>
+        <v>341700</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>347105</v>
+        <v>346448</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>367673</v>
+        <v>367868</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>219071</v>
+        <v>217996</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>207290</v>
+        <v>206648</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>198159</v>
+        <v>195828</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>198276</v>
+        <v>198225</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>164344</v>
+        <v>163154</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>190297</v>
+        <v>187862</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>179809</v>
+        <v>177520</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>164652</v>
+        <v>163909</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>391802</v>
+        <v>394039</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>407426</v>
+        <v>405462</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>383472</v>
+        <v>384455</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>370600</v>
+        <v>369710</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>242037</v>
+        <v>242001</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>234473</v>
+        <v>233794</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>222564</v>
+        <v>221415</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>221554</v>
+        <v>221373</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>195397</v>
+        <v>195277</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>218965</v>
+        <v>217673</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>210139</v>
+        <v>209168</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>186429</v>
+        <v>186592</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>430844</v>
+        <v>432148</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>445585</v>
+        <v>443982</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>425469</v>
+        <v>426941</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>401102</v>
+        <v>401556</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>509733</v>
+        <v>507119</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>528339</v>
+        <v>526351</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>530981</v>
+        <v>531299</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>582529</v>
+        <v>582700</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>432247</v>
+        <v>433080</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>493565</v>
+        <v>494242</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>479780</v>
+        <v>479103</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>543164</v>
+        <v>541966</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>953652</v>
+        <v>949932</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1038009</v>
+        <v>1037307</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1025948</v>
+        <v>1027353</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1140834</v>
+        <v>1141299</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>543896</v>
+        <v>543614</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>568862</v>
+        <v>567891</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>568931</v>
+        <v>568294</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>623269</v>
+        <v>623440</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>478156</v>
+        <v>479113</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>541478</v>
+        <v>542454</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>526609</v>
+        <v>526877</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>587625</v>
+        <v>587759</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1012393</v>
+        <v>1010003</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1098963</v>
+        <v>1100752</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1086403</v>
+        <v>1085831</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1200252</v>
+        <v>1201482</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>591863</v>
+        <v>592033</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>631242</v>
+        <v>631359</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>652261</v>
+        <v>652780</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>628874</v>
+        <v>630401</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>550025</v>
+        <v>551350</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>633578</v>
+        <v>636235</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>632204</v>
+        <v>633307</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>573417</v>
+        <v>571848</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1157998</v>
+        <v>1158124</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1276784</v>
+        <v>1278165</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1299814</v>
+        <v>1298172</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1214956</v>
+        <v>1215831</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>632749</v>
+        <v>631622</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>672614</v>
+        <v>672473</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>692032</v>
+        <v>691964</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>672239</v>
+        <v>670668</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>601439</v>
+        <v>601996</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>681393</v>
+        <v>682424</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>680058</v>
+        <v>682719</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>617527</v>
+        <v>617493</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1222177</v>
+        <v>1220209</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1339119</v>
+        <v>1340380</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1362935</v>
+        <v>1360332</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1276856</v>
+        <v>1279014</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2707550</v>
+        <v>2706919</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2765460</v>
+        <v>2761715</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2796186</v>
+        <v>2793551</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>2822464</v>
+        <v>2826406</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>2360367</v>
+        <v>2364709</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2527100</v>
+        <v>2524629</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>2581475</v>
+        <v>2575561</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>2659643</v>
+        <v>2661442</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>5093637</v>
+        <v>5097083</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>5327209</v>
+        <v>5312141</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>5395437</v>
+        <v>5400374</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>5522041</v>
+        <v>5511343</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2792733</v>
+        <v>2790415</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2858859</v>
+        <v>2851853</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2875946</v>
+        <v>2877888</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2915368</v>
+        <v>2922672</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2468644</v>
+        <v>2465967</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2635288</v>
+        <v>2634938</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2686523</v>
+        <v>2682617</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2750898</v>
+        <v>2750867</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>5234574</v>
+        <v>5231582</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>5465524</v>
+        <v>5458553</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>5534674</v>
+        <v>5535332</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>5650031</v>
+        <v>5643691</v>
       </c>
     </row>
     <row r="40">
